--- a/src/data/vendas.xlsx
+++ b/src/data/vendas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sysdev1\github\python-k8s-initial\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B368F492-D51D-43E7-9B55-0AC054CE78A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4449078F-1040-4AF0-B98F-20BC3654FE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7465AC56-E8AB-4EEA-AC3D-4FDE6D97AAE5}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Data</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>MG</t>
   </si>
 </sst>
 </file>
@@ -106,10 +112,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,7 +490,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,10 +519,10 @@
       <c r="A2" s="1">
         <v>45839.041666666664</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2">
@@ -528,10 +533,10 @@
       <c r="A3" s="1">
         <v>45839.041666666664</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3">
@@ -542,10 +547,10 @@
       <c r="A4" s="1">
         <v>45839.041666666664</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4">
@@ -556,10 +561,10 @@
       <c r="A5" s="1">
         <v>45839.041666666664</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5">
@@ -570,10 +575,10 @@
       <c r="A6" s="1">
         <v>45839.041666666664</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6">
@@ -584,10 +589,10 @@
       <c r="A7" s="1">
         <v>45839.041666666664</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7">
@@ -598,10 +603,10 @@
       <c r="A8" s="1">
         <v>45839.041666666664</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8">
@@ -612,10 +617,10 @@
       <c r="A9" s="1">
         <v>45839.041666666664</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9">
@@ -626,10 +631,10 @@
       <c r="A10" s="1">
         <v>45839.041666666664</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10">
@@ -640,10 +645,10 @@
       <c r="A11" s="1">
         <v>45839.041666666664</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11">
